--- a/Excel/SkillAddStatusEffectConfig.xlsx
+++ b/Excel/SkillAddStatusEffectConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27810" windowHeight="8430"/>
+    <workbookView windowWidth="31050" windowHeight="8430"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
   <si>
     <t>AppType.ClientH |  AppType.ClientM | AppType.Gate | AppType.Map</t>
   </si>
@@ -22,22 +22,46 @@
     <t>Id</t>
   </si>
   <si>
-    <t>技能类型</t>
-  </si>
-  <si>
-    <t>冷却时间</t>
-  </si>
-  <si>
-    <t>效果</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Cooldown</t>
-  </si>
-  <si>
-    <t>Effects</t>
+    <t>技能名字</t>
+  </si>
+  <si>
+    <t>作用对象</t>
+  </si>
+  <si>
+    <t>触发概率</t>
+  </si>
+  <si>
+    <t>状态类型</t>
+  </si>
+  <si>
+    <t>持续时间</t>
+  </si>
+  <si>
+    <t>参数1</t>
+  </si>
+  <si>
+    <t>参数2</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Target</t>
+  </si>
+  <si>
+    <t>Probability</t>
+  </si>
+  <si>
+    <t>StatusID</t>
+  </si>
+  <si>
+    <t>Duration</t>
+  </si>
+  <si>
+    <t>Param1</t>
+  </si>
+  <si>
+    <t>Param2</t>
   </si>
   <si>
     <t>int</t>
@@ -46,10 +70,31 @@
     <t>string</t>
   </si>
   <si>
-    <t>float</t>
-  </si>
-  <si>
-    <t>主动</t>
+    <t>黑火球术</t>
+  </si>
+  <si>
+    <t>技能目标</t>
+  </si>
+  <si>
+    <t>Weak</t>
+  </si>
+  <si>
+    <t>炎爆</t>
+  </si>
+  <si>
+    <t>Vertigo</t>
+  </si>
+  <si>
+    <t>血红激光炮</t>
+  </si>
+  <si>
+    <t>Burn</t>
+  </si>
+  <si>
+    <t>伤害取值=260</t>
+  </si>
+  <si>
+    <t>间隔时间=0.3</t>
   </si>
 </sst>
 </file>
@@ -57,10 +102,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -85,7 +130,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -105,16 +158,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -127,38 +189,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -172,35 +205,70 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -211,29 +279,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -250,187 +295,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -445,30 +490,15 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -494,6 +524,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -512,180 +551,186 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1044,20 +1089,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7"/>
   <cols>
     <col min="1" max="1" width="21.125" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.75" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12.625" style="2" customWidth="1"/>
-    <col min="4" max="5" width="9.625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="16.125" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="2"/>
+    <col min="3" max="4" width="12.625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="9.625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="16.125" style="2" customWidth="1"/>
+    <col min="8" max="10" width="18.5" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1065,7 +1112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="3:6">
+    <row r="3" spans="3:10">
       <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
@@ -1078,50 +1125,143 @@
       <c r="F3" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="G3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="4" spans="3:6">
+    <row r="4" spans="3:10">
       <c r="C4" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>7</v>
+        <v>11</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="5" spans="3:6">
+    <row r="5" spans="3:10">
       <c r="C5" s="3" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>9</v>
+        <v>17</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="3:5">
+    <row r="6" s="1" customFormat="1" spans="3:8">
       <c r="C6" s="1">
         <v>1001</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="1">
+        <v>100</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="3:10">
+      <c r="C7" s="1">
+        <v>1002</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="1">
+        <v>100</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="1">
+        <v>4</v>
+      </c>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="3:10">
+      <c r="C8" s="1">
+        <v>1004</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="1">
+        <v>100</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="1">
+        <v>4</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6">
-      <formula1>"主动,被动"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6 E7 E8">
+      <formula1>"技能目标,自身"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
